--- a/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\eclipse-workspace\Project_ServiceManagement\src\main\java\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\repository2\Project_ServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A852E34F-32FE-47CA-8D12-364E3BE32DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DD48FB-EC13-4369-B152-41C7C71439EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="139" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>admin@admin.com</t>
   </si>
   <si>
-    <t>passwords</t>
-  </si>
-  <si>
     <t>Logged In Successfully</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Logged Out Successfully</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -137,9 +137,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -424,7 +422,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,10 +458,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -471,13 +469,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -488,7 +486,7 @@
         <v>3455</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -512,10 +510,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{BED173C2-FB04-44F8-B8A9-3EF0D3C8A7EE}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{C56D1272-AA15-426E-BEAB-13C56F8920D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\repository2\Project_ServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DD48FB-EC13-4369-B152-41C7C71439EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE16DD66-8EB7-41D8-B718-CFDA8BF1F6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="139" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -66,13 +66,19 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Expected message for Add Client</t>
+  </si>
+  <si>
+    <t>Expected message for Add Reparation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,14 +90,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,11 +118,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -135,12 +132,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,7 +417,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,7 +427,7 @@
     <col min="3" max="3" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -463,9 +458,18 @@
       <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -485,7 +489,7 @@
       <c r="B3" s="2">
         <v>3455</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -498,9 +502,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H6" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">
@@ -508,11 +510,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{BED173C2-FB04-44F8-B8A9-3EF0D3C8A7EE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\repository2\Project_ServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE16DD66-8EB7-41D8-B718-CFDA8BF1F6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85230A25-58EC-4347-9536-A27A17096367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="139" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -72,13 +72,31 @@
   </si>
   <si>
     <t>Expected message for Add Reparation</t>
+  </si>
+  <si>
+    <t>Add Client</t>
+  </si>
+  <si>
+    <t>Add Reparation</t>
+  </si>
+  <si>
+    <t>Send SMS</t>
+  </si>
+  <si>
+    <t>Expected message for Send SMS</t>
+  </si>
+  <si>
+    <t>Send Email</t>
+  </si>
+  <si>
+    <t>Expected message for Send Email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +115,12 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -133,7 +157,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +443,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +491,10 @@
         <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -481,6 +510,18 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -502,7 +543,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H6" s="5"/>
+      <c r="H6"/>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">

--- a/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\repository2\Project_ServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85230A25-58EC-4347-9536-A27A17096367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3E4684-764B-4364-8448-D4A061AA0ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="139" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="139" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="addClient" sheetId="4" r:id="rId2"/>
+    <sheet name="sendsms" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Username</t>
   </si>
@@ -86,17 +88,89 @@
     <t>Expected message for Send SMS</t>
   </si>
   <si>
+    <t>Expected message for Send Email</t>
+  </si>
+  <si>
     <t>Send Email</t>
   </si>
   <si>
-    <t>Expected message for Send Email</t>
+    <t>Quantity Alerts</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Geo Locate</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Biju</t>
+  </si>
+  <si>
+    <t>Aptara</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Rannipattanam po</t>
+  </si>
+  <si>
+    <t>Kollam</t>
+  </si>
+  <si>
+    <t>biju3456@gmail.com</t>
+  </si>
+  <si>
+    <t>Haii</t>
+  </si>
+  <si>
+    <t>sendsms</t>
+  </si>
+  <si>
+    <t>Client name</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Archana</t>
+  </si>
+  <si>
+    <t>Hai everyone!!!!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +198,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF17C6A3"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -160,6 +247,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,8 +547,8 @@
     <col min="5" max="5" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" style="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="1"/>
     <col min="12" max="12" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -471,7 +563,7 @@
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -494,10 +586,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -520,10 +615,13 @@
         <v>17</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -533,8 +631,9 @@
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -542,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H6"/>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.3">
@@ -557,6 +656,142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9205560-8028-43FB-80B9-EDAADDF00623}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>657890</v>
+      </c>
+      <c r="G2">
+        <v>9345672310</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2">
+        <v>45677</v>
+      </c>
+      <c r="J2">
+        <v>33445</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F946D99A-9255-4200-9D13-01B7929E1B64}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262DC642-9035-4E66-90BB-CA4E3422F6D9}">
   <dimension ref="F16"/>
   <sheetViews>
@@ -574,7 +809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7EC3FC-117E-47DE-80D9-4E55F730FD42}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\repository2\Project_ServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3E4684-764B-4364-8448-D4A061AA0ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF29546-AD00-438D-9F78-9BF6F799E3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="139" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="139" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my" sheetId="1" r:id="rId1"/>
     <sheet name="addClient" sheetId="4" r:id="rId2"/>
     <sheet name="sendsms" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
+    <sheet name="sendEmail" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Username</t>
   </si>
@@ -164,6 +166,18 @@
   </si>
   <si>
     <t>Hai everyone!!!!!</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>This mail was created for testing</t>
+  </si>
+  <si>
+    <t>Haiii this is automation tool</t>
   </si>
 </sst>
 </file>
@@ -755,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F946D99A-9255-4200-9D13-01B7929E1B64}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -792,6 +806,53 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844C6B12-AE72-4C6E-812B-7E0E06DCDACA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05072AB8-F79A-4DD7-B93F-23D184968BBB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262DC642-9035-4E66-90BB-CA4E3422F6D9}">
   <dimension ref="F16"/>
   <sheetViews>
@@ -809,7 +870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7EC3FC-117E-47DE-80D9-4E55F730FD42}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\repository2\Project_ServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF29546-AD00-438D-9F78-9BF6F799E3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64F1493-640E-48F3-8287-C3D7125256E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="139" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my" sheetId="1" r:id="rId1"/>
     <sheet name="addClient" sheetId="4" r:id="rId2"/>
     <sheet name="sendsms" sheetId="5" r:id="rId3"/>
     <sheet name="sendEmail" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId5"/>
+    <sheet name="quickemail" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
   </sheets>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Username</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>Haiii this is automation tool</t>
+  </si>
+  <si>
+    <t>Send To</t>
+  </si>
+  <si>
+    <t>Subjeect</t>
+  </si>
+  <si>
+    <t>Message field</t>
   </si>
 </sst>
 </file>
@@ -548,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,7 +566,7 @@
     <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -809,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844C6B12-AE72-4C6E-812B-7E0E06DCDACA}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,12 +851,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05072AB8-F79A-4DD7-B93F-23D184968BBB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\repository2\Project_ServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64F1493-640E-48F3-8287-C3D7125256E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57596E17-4729-4608-ADA3-23EB7ABCBD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="sendsms" sheetId="5" r:id="rId3"/>
     <sheet name="sendEmail" sheetId="6" r:id="rId4"/>
     <sheet name="quickemail" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId6"/>
+    <sheet name="quicksms" sheetId="2" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Username</t>
   </si>
@@ -51,9 +51,6 @@
     <t>testSheet</t>
   </si>
   <si>
-    <t>Sheet1</t>
-  </si>
-  <si>
     <t>admin@admin.com</t>
   </si>
   <si>
@@ -187,6 +184,24 @@
   </si>
   <si>
     <t>Message field</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Phn Num</t>
+  </si>
+  <si>
+    <t>Haiiii</t>
+  </si>
+  <si>
+    <t>Quick SMS</t>
+  </si>
+  <si>
+    <t>Section Head</t>
+  </si>
+  <si>
+    <t>Quick Email</t>
   </si>
 </sst>
 </file>
@@ -558,7 +573,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,54 +609,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -652,7 +667,7 @@
         <v>3455</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -700,54 +715,54 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
       </c>
       <c r="F2">
         <v>657890</v>
@@ -756,7 +771,7 @@
         <v>9345672310</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>45677</v>
@@ -765,7 +780,7 @@
         <v>33445</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -790,23 +805,23 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -830,18 +845,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -851,10 +866,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05072AB8-F79A-4DD7-B93F-23D184968BBB}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,46 +877,77 @@
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262DC642-9035-4E66-90BB-CA4E3422F6D9}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2">
+        <v>8763921345</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262DC642-9035-4E66-90BB-CA4E3422F6D9}">
-  <dimension ref="F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="16" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F16" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
+++ b/Project_ServiceManagement/src/main/java/Resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\repository2\Project_ServiceManagement\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57596E17-4729-4608-ADA3-23EB7ABCBD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D35BF60-686D-4BA9-AD79-FB1BA2D22FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Username</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Quick Email</t>
+  </si>
+  <si>
+    <t>Expected message for Quantity Alerts</t>
   </si>
 </sst>
 </file>
@@ -572,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +604,7 @@
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -627,7 +630,7 @@
         <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
